--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="276">
   <si>
     <t>Team 1</t>
   </si>
@@ -680,6 +680,174 @@
   </si>
   <si>
     <t>-3.03</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>-3.32</t>
+  </si>
+  <si>
+    <t>-3.26</t>
+  </si>
+  <si>
+    <t>-4.01</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>-49.95</t>
+  </si>
+  <si>
+    <t>-47.03</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>3:7</t>
+  </si>
+  <si>
+    <t>-9.1</t>
+  </si>
+  <si>
+    <t>55.04</t>
+  </si>
+  <si>
+    <t>11.24</t>
+  </si>
+  <si>
+    <t>33.74</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>37.25</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>13.74</t>
+  </si>
+  <si>
+    <t>-14.7</t>
+  </si>
+  <si>
+    <t>26.02</t>
+  </si>
+  <si>
+    <t>43.22</t>
+  </si>
+  <si>
+    <t>24.16</t>
+  </si>
+  <si>
+    <t>14.74</t>
+  </si>
+  <si>
+    <t>32.35</t>
+  </si>
+  <si>
+    <t>-9.43</t>
+  </si>
+  <si>
+    <t>137.5</t>
+  </si>
+  <si>
+    <t>11.12</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>13.95</t>
+  </si>
+  <si>
+    <t>8.74</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>73.53</t>
+  </si>
+  <si>
+    <t>6.36</t>
+  </si>
+  <si>
+    <t>37.32</t>
+  </si>
+  <si>
+    <t>-7.75</t>
+  </si>
+  <si>
+    <t>44.79</t>
+  </si>
+  <si>
+    <t>3:10</t>
+  </si>
+  <si>
+    <t>-4.91</t>
+  </si>
+  <si>
+    <t>3:38</t>
+  </si>
+  <si>
+    <t>Tallon Griekspoor</t>
+  </si>
+  <si>
+    <t>Hugo Grenier</t>
+  </si>
+  <si>
+    <t>-4.78</t>
+  </si>
+  <si>
+    <t>-3.23</t>
+  </si>
+  <si>
+    <t>-20.99</t>
+  </si>
+  <si>
+    <t>-42.27</t>
+  </si>
+  <si>
+    <t>-48.46</t>
+  </si>
+  <si>
+    <t>-44.41</t>
+  </si>
+  <si>
+    <t>-24.94</t>
+  </si>
+  <si>
+    <t>3:55</t>
+  </si>
+  <si>
+    <t>4:9</t>
+  </si>
+  <si>
+    <t>-3.64</t>
+  </si>
+  <si>
+    <t>-2.58</t>
+  </si>
+  <si>
+    <t>4:13</t>
+  </si>
+  <si>
+    <t>-2.88</t>
+  </si>
+  <si>
+    <t>4:17</t>
+  </si>
+  <si>
+    <t>-2.13</t>
+  </si>
+  <si>
+    <t>-5.26</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D799"/>
+  <dimension ref="A1:D1552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="A1:XFD1048576"/>
@@ -9864,6 +10032,8628 @@
         <v>217</v>
       </c>
     </row>
+    <row r="800">
+      <c r="A800" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B800" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C800" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D800" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B801" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C801" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D801" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B802" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C802" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="D802" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B803" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C803" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="D803" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B804" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C804" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D804" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B805" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C805" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D805" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B806" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C806" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D806" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B807" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C807" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D807" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B808" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C808" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D808" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B809" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C809" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D809" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B810" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C810" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D810" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B811" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C811" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D811" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B812" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C812" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D812" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B813" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C813" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D813" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B814" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C814" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D814" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B815" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C815" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D815" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B816" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C816" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D816" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B817" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C817" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D817" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B818" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C818" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D818" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B819" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C819" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D819" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B820" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C820" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D820" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B821" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C821" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D821" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B822" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C822" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D822" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B823" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C823" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D823" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B824" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C824" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D824" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B825" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C825" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D825" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B826" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C826" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D826" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B827" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C827" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D827" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B828" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C828" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D828" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B829" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C829" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D829" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B830" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C830" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="D830" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B831" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C831" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="D831" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B832" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C832" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D832" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B833" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C833" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D833" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B834" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C834" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="D834" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B835" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C835" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="D835" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B836" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C836" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D836" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B837" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C837" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D837" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B838" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C838" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D838" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B839" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C839" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D839" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B840" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C840" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="D840" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B841" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C841" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="D841" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B842" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C842" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D842" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B843" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C843" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D843" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B844" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C844" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D844" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B845" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C845" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D845" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B846" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C846" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D846" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B847" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C847" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D847" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B848" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C848" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D848" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B849" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C849" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D849" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B850" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C850" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D850" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B851" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C851" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D851" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B852" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C852" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D852" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B853" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C853" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D853" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B854" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C854" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D854" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B855" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C855" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="D855" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B856" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C856" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D856" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B857" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C857" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D857" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B858" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C858" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="D858" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="0"/>
+      <c r="B859" s="0"/>
+      <c r="C859" s="0"/>
+      <c r="D859" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="0"/>
+      <c r="B860" s="0"/>
+      <c r="C860" s="0"/>
+      <c r="D860" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="0"/>
+      <c r="B861" s="0"/>
+      <c r="C861" s="0"/>
+      <c r="D861" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="0"/>
+      <c r="B862" s="0"/>
+      <c r="C862" s="0"/>
+      <c r="D862" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="0"/>
+      <c r="B863" s="0"/>
+      <c r="C863" s="0"/>
+      <c r="D863" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="0"/>
+      <c r="B864" s="0"/>
+      <c r="C864" s="0"/>
+      <c r="D864" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="0"/>
+      <c r="B865" s="0"/>
+      <c r="C865" s="0"/>
+      <c r="D865" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="0"/>
+      <c r="B866" s="0"/>
+      <c r="C866" s="0"/>
+      <c r="D866" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="0"/>
+      <c r="B867" s="0"/>
+      <c r="C867" s="0"/>
+      <c r="D867" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="0"/>
+      <c r="B868" s="0"/>
+      <c r="C868" s="0"/>
+      <c r="D868" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="0"/>
+      <c r="B869" s="0"/>
+      <c r="C869" s="0"/>
+      <c r="D869" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="0"/>
+      <c r="B870" s="0"/>
+      <c r="C870" s="0"/>
+      <c r="D870" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="0"/>
+      <c r="B871" s="0"/>
+      <c r="C871" s="0"/>
+      <c r="D871" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="0"/>
+      <c r="B872" s="0"/>
+      <c r="C872" s="0"/>
+      <c r="D872" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="0"/>
+      <c r="B873" s="0"/>
+      <c r="C873" s="0"/>
+      <c r="D873" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="0"/>
+      <c r="B874" s="0"/>
+      <c r="C874" s="0"/>
+      <c r="D874" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="0"/>
+      <c r="B875" s="0"/>
+      <c r="C875" s="0"/>
+      <c r="D875" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="0"/>
+      <c r="B876" s="0"/>
+      <c r="C876" s="0"/>
+      <c r="D876" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="0"/>
+      <c r="B877" s="0"/>
+      <c r="C877" s="0"/>
+      <c r="D877" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="0"/>
+      <c r="B878" s="0"/>
+      <c r="C878" s="0"/>
+      <c r="D878" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="0"/>
+      <c r="B879" s="0"/>
+      <c r="C879" s="0"/>
+      <c r="D879" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="0"/>
+      <c r="B880" s="0"/>
+      <c r="C880" s="0"/>
+      <c r="D880" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="0"/>
+      <c r="B881" s="0"/>
+      <c r="C881" s="0"/>
+      <c r="D881" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="0"/>
+      <c r="B882" s="0"/>
+      <c r="C882" s="0"/>
+      <c r="D882" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="0"/>
+      <c r="B883" s="0"/>
+      <c r="C883" s="0"/>
+      <c r="D883" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="0"/>
+      <c r="B884" s="0"/>
+      <c r="C884" s="0"/>
+      <c r="D884" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="0"/>
+      <c r="B885" s="0"/>
+      <c r="C885" s="0"/>
+      <c r="D885" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="0"/>
+      <c r="B886" s="0"/>
+      <c r="C886" s="0"/>
+      <c r="D886" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="0"/>
+      <c r="B887" s="0"/>
+      <c r="C887" s="0"/>
+      <c r="D887" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="0"/>
+      <c r="B888" s="0"/>
+      <c r="C888" s="0"/>
+      <c r="D888" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="0"/>
+      <c r="B889" s="0"/>
+      <c r="C889" s="0"/>
+      <c r="D889" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="0"/>
+      <c r="B890" s="0"/>
+      <c r="C890" s="0"/>
+      <c r="D890" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="0"/>
+      <c r="B891" s="0"/>
+      <c r="C891" s="0"/>
+      <c r="D891" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="0"/>
+      <c r="B892" s="0"/>
+      <c r="C892" s="0"/>
+      <c r="D892" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="0"/>
+      <c r="B893" s="0"/>
+      <c r="C893" s="0"/>
+      <c r="D893" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="0"/>
+      <c r="B894" s="0"/>
+      <c r="C894" s="0"/>
+      <c r="D894" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B895" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C895" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="D895" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B896" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C896" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="D896" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B897" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C897" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D897" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B898" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C898" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D898" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B899" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C899" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="D899" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B900" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C900" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="D900" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B901" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C901" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="D901" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B902" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C902" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="D902" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B903" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C903" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D903" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B904" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C904" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="D904" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B905" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C905" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="D905" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B906" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C906" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="D906" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B907" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C907" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D907" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B908" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C908" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="D908" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B909" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C909" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="D909" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B910" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C910" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="D910" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B911" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C911" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D911" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B912" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C912" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D912" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B913" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C913" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="D913" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B914" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C914" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="D914" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B915" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C915" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="D915" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B916" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C916" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="D916" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B917" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C917" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="D917" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B918" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C918" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="D918" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B919" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C919" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="D919" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B920" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C920" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="D920" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B921" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C921" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="D921" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B922" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C922" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="D922" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B923" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C923" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D923" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B924" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C924" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D924" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B925" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C925" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="D925" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B926" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C926" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="D926" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B927" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C927" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D927" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B928" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C928" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D928" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B929" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C929" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D929" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B930" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C930" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D930" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B931" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C931" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="D931" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B932" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C932" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="D932" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B933" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C933" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="D933" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B934" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C934" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="D934" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B935" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C935" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D935" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B936" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C936" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D936" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B937" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C937" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D937" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B938" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C938" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D938" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B939" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C939" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="D939" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B940" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C940" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="D940" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B941" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C941" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="D941" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B942" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C942" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="D942" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B943" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C943" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="D943" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B944" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C944" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="D944" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B945" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C945" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="D945" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B946" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C946" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="D946" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B947" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C947" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="D947" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="0"/>
+      <c r="B948" s="0"/>
+      <c r="C948" s="0"/>
+      <c r="D948" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="0"/>
+      <c r="B949" s="0"/>
+      <c r="C949" s="0"/>
+      <c r="D949" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="0"/>
+      <c r="B950" s="0"/>
+      <c r="C950" s="0"/>
+      <c r="D950" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="0"/>
+      <c r="B951" s="0"/>
+      <c r="C951" s="0"/>
+      <c r="D951" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="0"/>
+      <c r="B952" s="0"/>
+      <c r="C952" s="0"/>
+      <c r="D952" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="0"/>
+      <c r="B953" s="0"/>
+      <c r="C953" s="0"/>
+      <c r="D953" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="0"/>
+      <c r="B954" s="0"/>
+      <c r="C954" s="0"/>
+      <c r="D954" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="0"/>
+      <c r="B955" s="0"/>
+      <c r="C955" s="0"/>
+      <c r="D955" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="0"/>
+      <c r="B956" s="0"/>
+      <c r="C956" s="0"/>
+      <c r="D956" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="0"/>
+      <c r="B957" s="0"/>
+      <c r="C957" s="0"/>
+      <c r="D957" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="0"/>
+      <c r="B958" s="0"/>
+      <c r="C958" s="0"/>
+      <c r="D958" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="0"/>
+      <c r="B959" s="0"/>
+      <c r="C959" s="0"/>
+      <c r="D959" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="0"/>
+      <c r="B960" s="0"/>
+      <c r="C960" s="0"/>
+      <c r="D960" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="0"/>
+      <c r="B961" s="0"/>
+      <c r="C961" s="0"/>
+      <c r="D961" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="0"/>
+      <c r="B962" s="0"/>
+      <c r="C962" s="0"/>
+      <c r="D962" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="0"/>
+      <c r="B963" s="0"/>
+      <c r="C963" s="0"/>
+      <c r="D963" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="0"/>
+      <c r="B964" s="0"/>
+      <c r="C964" s="0"/>
+      <c r="D964" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="0"/>
+      <c r="B965" s="0"/>
+      <c r="C965" s="0"/>
+      <c r="D965" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="0"/>
+      <c r="B966" s="0"/>
+      <c r="C966" s="0"/>
+      <c r="D966" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="0"/>
+      <c r="B967" s="0"/>
+      <c r="C967" s="0"/>
+      <c r="D967" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="0"/>
+      <c r="B968" s="0"/>
+      <c r="C968" s="0"/>
+      <c r="D968" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="0"/>
+      <c r="B969" s="0"/>
+      <c r="C969" s="0"/>
+      <c r="D969" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="0"/>
+      <c r="B970" s="0"/>
+      <c r="C970" s="0"/>
+      <c r="D970" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="0"/>
+      <c r="B971" s="0"/>
+      <c r="C971" s="0"/>
+      <c r="D971" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="0"/>
+      <c r="B972" s="0"/>
+      <c r="C972" s="0"/>
+      <c r="D972" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="0"/>
+      <c r="B973" s="0"/>
+      <c r="C973" s="0"/>
+      <c r="D973" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="0"/>
+      <c r="B974" s="0"/>
+      <c r="C974" s="0"/>
+      <c r="D974" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="0"/>
+      <c r="B975" s="0"/>
+      <c r="C975" s="0"/>
+      <c r="D975" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="0"/>
+      <c r="B976" s="0"/>
+      <c r="C976" s="0"/>
+      <c r="D976" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="0"/>
+      <c r="B977" s="0"/>
+      <c r="C977" s="0"/>
+      <c r="D977" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="0"/>
+      <c r="B978" s="0"/>
+      <c r="C978" s="0"/>
+      <c r="D978" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="0"/>
+      <c r="B979" s="0"/>
+      <c r="C979" s="0"/>
+      <c r="D979" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="0"/>
+      <c r="B980" s="0"/>
+      <c r="C980" s="0"/>
+      <c r="D980" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="0"/>
+      <c r="B981" s="0"/>
+      <c r="C981" s="0"/>
+      <c r="D981" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="0"/>
+      <c r="B982" s="0"/>
+      <c r="C982" s="0"/>
+      <c r="D982" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="0"/>
+      <c r="B983" s="0"/>
+      <c r="C983" s="0"/>
+      <c r="D983" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="0"/>
+      <c r="B984" s="0"/>
+      <c r="C984" s="0"/>
+      <c r="D984" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="0"/>
+      <c r="B985" s="0"/>
+      <c r="C985" s="0"/>
+      <c r="D985" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="0"/>
+      <c r="B986" s="0"/>
+      <c r="C986" s="0"/>
+      <c r="D986" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="0"/>
+      <c r="B987" s="0"/>
+      <c r="C987" s="0"/>
+      <c r="D987" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="0"/>
+      <c r="B988" s="0"/>
+      <c r="C988" s="0"/>
+      <c r="D988" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="0"/>
+      <c r="B989" s="0"/>
+      <c r="C989" s="0"/>
+      <c r="D989" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B990" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C990" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="D990" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B991" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C991" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="D991" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B992" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C992" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D992" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B993" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C993" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="D993" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B994" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C994" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="D994" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B995" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C995" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="D995" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B996" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C996" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="D996" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B997" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C997" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="D997" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B998" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C998" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D998" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B999" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C999" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="D999" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1000" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C1000" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="D1000" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1001" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C1001" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="D1001" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1002" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C1002" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D1002" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1003" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C1003" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="D1003" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1004" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C1004" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="D1004" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B1005" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C1005" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="D1005" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B1006" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C1006" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D1006" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B1007" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C1007" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D1007" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1008" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1008" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="D1008" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B1009" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C1009" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="D1009" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1010" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C1010" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="D1010" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B1011" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C1011" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="D1011" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B1012" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C1012" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="D1012" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B1013" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C1013" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="D1013" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1014" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C1014" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="D1014" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B1015" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C1015" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="D1015" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1016" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C1016" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="D1016" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B1017" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C1017" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="D1017" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1018" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C1018" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D1018" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B1019" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C1019" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D1019" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1020" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C1020" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="D1020" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B1021" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C1021" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="D1021" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B1022" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C1022" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D1022" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1023" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C1023" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D1023" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1024" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C1024" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1024" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B1025" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C1025" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1025" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B1026" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C1026" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="D1026" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B1027" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C1027" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="D1027" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B1028" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C1028" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="D1028" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B1029" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C1029" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="D1029" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1030" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C1030" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D1030" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B1031" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C1031" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D1031" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1032" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C1032" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D1032" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B1033" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C1033" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D1033" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B1034" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C1034" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="D1034" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B1035" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C1035" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="D1035" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B1036" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C1036" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="D1036" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B1037" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C1037" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="D1037" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B1038" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C1038" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="D1038" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B1039" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C1039" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="D1039" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B1040" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C1040" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="D1040" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B1041" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C1041" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="D1041" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B1042" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C1042" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="D1042" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1043" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1043" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1043" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1044" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1044" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1044" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1045" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1045" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1045" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1046" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1046" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1046" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1047" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1047" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="D1047" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1048" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1048" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1048" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1049" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1049" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1049" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1050" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1050" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1050" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1051" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1051" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1051" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1052" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1052" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1052" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1053" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1053" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1053" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1054" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1054" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="D1054" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1055" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1055" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1055" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1056" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1056" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1056" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1057" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1057" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="D1057" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="0"/>
+      <c r="B1058" s="0"/>
+      <c r="C1058" s="0"/>
+      <c r="D1058" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="0"/>
+      <c r="B1059" s="0"/>
+      <c r="C1059" s="0"/>
+      <c r="D1059" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="0"/>
+      <c r="B1060" s="0"/>
+      <c r="C1060" s="0"/>
+      <c r="D1060" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="0"/>
+      <c r="B1061" s="0"/>
+      <c r="C1061" s="0"/>
+      <c r="D1061" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="0"/>
+      <c r="B1062" s="0"/>
+      <c r="C1062" s="0"/>
+      <c r="D1062" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="0"/>
+      <c r="B1063" s="0"/>
+      <c r="C1063" s="0"/>
+      <c r="D1063" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="0"/>
+      <c r="B1064" s="0"/>
+      <c r="C1064" s="0"/>
+      <c r="D1064" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="0"/>
+      <c r="B1065" s="0"/>
+      <c r="C1065" s="0"/>
+      <c r="D1065" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="0"/>
+      <c r="B1066" s="0"/>
+      <c r="C1066" s="0"/>
+      <c r="D1066" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="0"/>
+      <c r="B1067" s="0"/>
+      <c r="C1067" s="0"/>
+      <c r="D1067" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="0"/>
+      <c r="B1068" s="0"/>
+      <c r="C1068" s="0"/>
+      <c r="D1068" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="0"/>
+      <c r="B1069" s="0"/>
+      <c r="C1069" s="0"/>
+      <c r="D1069" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="0"/>
+      <c r="B1070" s="0"/>
+      <c r="C1070" s="0"/>
+      <c r="D1070" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="0"/>
+      <c r="B1071" s="0"/>
+      <c r="C1071" s="0"/>
+      <c r="D1071" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="0"/>
+      <c r="B1072" s="0"/>
+      <c r="C1072" s="0"/>
+      <c r="D1072" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="0"/>
+      <c r="B1073" s="0"/>
+      <c r="C1073" s="0"/>
+      <c r="D1073" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="0"/>
+      <c r="B1074" s="0"/>
+      <c r="C1074" s="0"/>
+      <c r="D1074" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="0"/>
+      <c r="B1075" s="0"/>
+      <c r="C1075" s="0"/>
+      <c r="D1075" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="0"/>
+      <c r="B1076" s="0"/>
+      <c r="C1076" s="0"/>
+      <c r="D1076" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="0"/>
+      <c r="B1077" s="0"/>
+      <c r="C1077" s="0"/>
+      <c r="D1077" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="0"/>
+      <c r="B1078" s="0"/>
+      <c r="C1078" s="0"/>
+      <c r="D1078" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="0"/>
+      <c r="B1079" s="0"/>
+      <c r="C1079" s="0"/>
+      <c r="D1079" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="0"/>
+      <c r="B1080" s="0"/>
+      <c r="C1080" s="0"/>
+      <c r="D1080" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="0"/>
+      <c r="B1081" s="0"/>
+      <c r="C1081" s="0"/>
+      <c r="D1081" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="0"/>
+      <c r="B1082" s="0"/>
+      <c r="C1082" s="0"/>
+      <c r="D1082" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="0"/>
+      <c r="B1083" s="0"/>
+      <c r="C1083" s="0"/>
+      <c r="D1083" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="0"/>
+      <c r="B1084" s="0"/>
+      <c r="C1084" s="0"/>
+      <c r="D1084" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B1085" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1085" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1085" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B1086" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C1086" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1086" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B1087" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C1087" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="D1087" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B1088" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C1088" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="D1088" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B1089" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C1089" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D1089" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B1090" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="C1090" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D1090" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B1091" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C1091" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D1091" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1092" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C1092" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D1092" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1093" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C1093" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1093" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B1094" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1094" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1094" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1095" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1095" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D1095" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B1096" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C1096" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1096" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1097" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C1097" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D1097" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1098" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C1098" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D1098" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1099" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C1099" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1099" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1100" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C1100" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1100" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1101" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C1101" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D1101" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B1102" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C1102" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D1102" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B1103" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C1103" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D1103" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B1104" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C1104" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D1104" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1105" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1105" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D1105" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B1106" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C1106" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D1106" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1107" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C1107" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1107" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B1108" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C1108" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1108" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B1109" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C1109" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1109" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B1110" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C1110" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1110" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1111" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C1111" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D1111" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B1112" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C1112" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D1112" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1113" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C1113" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D1113" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B1114" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C1114" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D1114" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1115" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C1115" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D1115" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B1116" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C1116" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D1116" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1117" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C1117" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D1117" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B1118" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C1118" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D1118" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B1119" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C1119" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1119" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1120" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C1120" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1120" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1121" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C1121" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="D1121" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B1122" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C1122" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="D1122" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B1123" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C1123" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1123" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B1124" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C1124" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1124" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B1125" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C1125" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1125" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B1126" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C1126" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1126" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1127" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C1127" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="D1127" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B1128" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C1128" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="D1128" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1129" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C1129" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D1129" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B1130" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C1130" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D1130" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B1131" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C1131" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1131" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B1132" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C1132" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1132" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B1133" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C1133" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1133" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B1134" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C1134" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="D1134" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B1135" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C1135" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="D1135" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B1136" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C1136" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1136" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B1137" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C1137" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1137" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B1138" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C1138" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D1138" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B1139" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C1139" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D1139" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1140" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1140" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="D1140" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1141" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1141" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1141" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1142" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1142" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="D1142" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1143" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1143" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1143" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1144" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1144" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1144" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1145" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1145" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1145" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1146" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1146" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="D1146" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1147" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1147" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="D1147" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1148" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1148" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1148" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1149" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1149" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="D1149" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1150" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1150" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1150" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1151" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1151" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1151" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1152" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1152" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1152" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1153" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1153" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="D1153" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1154" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1154" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1154" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1155" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1155" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1155" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1156" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1156" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1156" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1157" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1157" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="D1157" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1158" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1158" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="D1158" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1159" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1159" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1159" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1160" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1160" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1160" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1161" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1161" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1161" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1162" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1162" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1162" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1163" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1163" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1163" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1164" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1164" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="D1164" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1165" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1165" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1165" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1166" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1166" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D1166" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1167" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C1167" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="D1167" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="0"/>
+      <c r="B1168" s="0"/>
+      <c r="C1168" s="0"/>
+      <c r="D1168" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="0"/>
+      <c r="B1169" s="0"/>
+      <c r="C1169" s="0"/>
+      <c r="D1169" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="0"/>
+      <c r="B1170" s="0"/>
+      <c r="C1170" s="0"/>
+      <c r="D1170" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="0"/>
+      <c r="B1171" s="0"/>
+      <c r="C1171" s="0"/>
+      <c r="D1171" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="0"/>
+      <c r="B1172" s="0"/>
+      <c r="C1172" s="0"/>
+      <c r="D1172" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="0"/>
+      <c r="B1173" s="0"/>
+      <c r="C1173" s="0"/>
+      <c r="D1173" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="0"/>
+      <c r="B1174" s="0"/>
+      <c r="C1174" s="0"/>
+      <c r="D1174" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="0"/>
+      <c r="B1175" s="0"/>
+      <c r="C1175" s="0"/>
+      <c r="D1175" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="0"/>
+      <c r="B1176" s="0"/>
+      <c r="C1176" s="0"/>
+      <c r="D1176" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="0"/>
+      <c r="B1177" s="0"/>
+      <c r="C1177" s="0"/>
+      <c r="D1177" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="0"/>
+      <c r="B1178" s="0"/>
+      <c r="C1178" s="0"/>
+      <c r="D1178" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="0"/>
+      <c r="B1179" s="0"/>
+      <c r="C1179" s="0"/>
+      <c r="D1179" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B1180" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1180" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1180" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B1181" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C1181" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1181" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B1182" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C1182" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="D1182" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B1183" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C1183" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="D1183" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B1184" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C1184" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D1184" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B1185" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="C1185" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D1185" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B1186" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C1186" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D1186" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1187" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C1187" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D1187" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1188" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C1188" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1188" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B1189" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1189" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1189" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1190" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1190" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D1190" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B1191" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C1191" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1191" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1192" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C1192" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D1192" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1193" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C1193" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D1193" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1194" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C1194" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1194" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1195" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C1195" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1195" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1196" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C1196" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D1196" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B1197" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C1197" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D1197" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B1198" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C1198" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D1198" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B1199" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C1199" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D1199" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1200" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1200" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D1200" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B1201" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C1201" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D1201" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1202" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C1202" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1202" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B1203" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C1203" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1203" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B1204" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C1204" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1204" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B1205" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C1205" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1205" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1206" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C1206" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D1206" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B1207" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C1207" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D1207" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1208" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C1208" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D1208" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B1209" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C1209" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D1209" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1210" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C1210" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D1210" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B1211" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C1211" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D1211" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1212" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C1212" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D1212" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B1213" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C1213" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D1213" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B1214" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C1214" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1214" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1215" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C1215" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1215" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1216" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C1216" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1216" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B1217" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C1217" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1217" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B1218" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C1218" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1218" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B1219" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C1219" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1219" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B1220" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C1220" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1220" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B1221" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C1221" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1221" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1222" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C1222" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="D1222" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B1223" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C1223" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="D1223" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1224" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C1224" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D1224" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B1225" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C1225" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D1225" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B1226" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C1226" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1226" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B1227" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C1227" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1227" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B1228" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C1228" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1228" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B1229" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C1229" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1229" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B1230" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C1230" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1230" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B1231" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C1231" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1231" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B1232" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C1232" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1232" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B1233" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C1233" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D1233" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B1234" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C1234" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D1234" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="0"/>
+      <c r="B1235" s="0"/>
+      <c r="C1235" s="0"/>
+      <c r="D1235" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="0"/>
+      <c r="B1236" s="0"/>
+      <c r="C1236" s="0"/>
+      <c r="D1236" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="0"/>
+      <c r="B1237" s="0"/>
+      <c r="C1237" s="0"/>
+      <c r="D1237" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="0"/>
+      <c r="B1238" s="0"/>
+      <c r="C1238" s="0"/>
+      <c r="D1238" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="0"/>
+      <c r="B1239" s="0"/>
+      <c r="C1239" s="0"/>
+      <c r="D1239" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="0"/>
+      <c r="B1240" s="0"/>
+      <c r="C1240" s="0"/>
+      <c r="D1240" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="0"/>
+      <c r="B1241" s="0"/>
+      <c r="C1241" s="0"/>
+      <c r="D1241" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="0"/>
+      <c r="B1242" s="0"/>
+      <c r="C1242" s="0"/>
+      <c r="D1242" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="0"/>
+      <c r="B1243" s="0"/>
+      <c r="C1243" s="0"/>
+      <c r="D1243" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="0"/>
+      <c r="B1244" s="0"/>
+      <c r="C1244" s="0"/>
+      <c r="D1244" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="0"/>
+      <c r="B1245" s="0"/>
+      <c r="C1245" s="0"/>
+      <c r="D1245" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="0"/>
+      <c r="B1246" s="0"/>
+      <c r="C1246" s="0"/>
+      <c r="D1246" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="0"/>
+      <c r="B1247" s="0"/>
+      <c r="C1247" s="0"/>
+      <c r="D1247" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="0"/>
+      <c r="B1248" s="0"/>
+      <c r="C1248" s="0"/>
+      <c r="D1248" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="0"/>
+      <c r="B1249" s="0"/>
+      <c r="C1249" s="0"/>
+      <c r="D1249" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="0"/>
+      <c r="B1250" s="0"/>
+      <c r="C1250" s="0"/>
+      <c r="D1250" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="0"/>
+      <c r="B1251" s="0"/>
+      <c r="C1251" s="0"/>
+      <c r="D1251" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="0"/>
+      <c r="B1252" s="0"/>
+      <c r="C1252" s="0"/>
+      <c r="D1252" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="0"/>
+      <c r="B1253" s="0"/>
+      <c r="C1253" s="0"/>
+      <c r="D1253" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="0"/>
+      <c r="B1254" s="0"/>
+      <c r="C1254" s="0"/>
+      <c r="D1254" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="0"/>
+      <c r="B1255" s="0"/>
+      <c r="C1255" s="0"/>
+      <c r="D1255" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="0"/>
+      <c r="B1256" s="0"/>
+      <c r="C1256" s="0"/>
+      <c r="D1256" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="0"/>
+      <c r="B1257" s="0"/>
+      <c r="C1257" s="0"/>
+      <c r="D1257" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="0"/>
+      <c r="B1258" s="0"/>
+      <c r="C1258" s="0"/>
+      <c r="D1258" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="0"/>
+      <c r="B1259" s="0"/>
+      <c r="C1259" s="0"/>
+      <c r="D1259" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="0"/>
+      <c r="B1260" s="0"/>
+      <c r="C1260" s="0"/>
+      <c r="D1260" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="0"/>
+      <c r="B1261" s="0"/>
+      <c r="C1261" s="0"/>
+      <c r="D1261" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="0"/>
+      <c r="B1262" s="0"/>
+      <c r="C1262" s="0"/>
+      <c r="D1262" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="0"/>
+      <c r="B1263" s="0"/>
+      <c r="C1263" s="0"/>
+      <c r="D1263" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="0"/>
+      <c r="B1264" s="0"/>
+      <c r="C1264" s="0"/>
+      <c r="D1264" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="0"/>
+      <c r="B1265" s="0"/>
+      <c r="C1265" s="0"/>
+      <c r="D1265" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="0"/>
+      <c r="B1266" s="0"/>
+      <c r="C1266" s="0"/>
+      <c r="D1266" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="0"/>
+      <c r="B1267" s="0"/>
+      <c r="C1267" s="0"/>
+      <c r="D1267" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="0"/>
+      <c r="B1268" s="0"/>
+      <c r="C1268" s="0"/>
+      <c r="D1268" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="0"/>
+      <c r="B1269" s="0"/>
+      <c r="C1269" s="0"/>
+      <c r="D1269" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="0"/>
+      <c r="B1270" s="0"/>
+      <c r="C1270" s="0"/>
+      <c r="D1270" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="0"/>
+      <c r="B1271" s="0"/>
+      <c r="C1271" s="0"/>
+      <c r="D1271" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="0"/>
+      <c r="B1272" s="0"/>
+      <c r="C1272" s="0"/>
+      <c r="D1272" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="0"/>
+      <c r="B1273" s="0"/>
+      <c r="C1273" s="0"/>
+      <c r="D1273" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B1274" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1274" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1274" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B1275" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C1275" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1275" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B1276" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C1276" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D1276" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B1277" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C1277" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D1277" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B1278" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C1278" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D1278" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B1279" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="C1279" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D1279" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B1280" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C1280" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D1280" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1281" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C1281" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D1281" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1282" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C1282" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1282" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B1283" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1283" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1283" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1284" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1284" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D1284" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B1285" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C1285" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1285" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1286" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C1286" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D1286" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1287" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C1287" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D1287" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1288" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C1288" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1288" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1289" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C1289" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1289" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1290" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C1290" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D1290" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B1291" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C1291" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D1291" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B1292" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C1292" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D1292" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B1293" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C1293" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D1293" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1294" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1294" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D1294" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B1295" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C1295" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D1295" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1296" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C1296" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1296" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B1297" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C1297" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1297" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B1298" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C1298" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1298" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B1299" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C1299" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1299" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1300" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C1300" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D1300" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B1301" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C1301" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D1301" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1302" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C1302" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D1302" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B1303" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C1303" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D1303" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1304" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C1304" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D1304" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B1305" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C1305" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D1305" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1306" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C1306" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D1306" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B1307" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C1307" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D1307" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B1308" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C1308" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1308" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1309" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C1309" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1309" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1310" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C1310" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1310" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B1311" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C1311" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1311" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B1312" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C1312" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1312" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B1313" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C1313" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1313" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B1314" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C1314" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1314" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B1315" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C1315" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1315" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1316" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C1316" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="D1316" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B1317" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C1317" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="D1317" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1318" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C1318" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D1318" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B1319" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C1319" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D1319" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B1320" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C1320" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1320" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B1321" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C1321" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1321" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B1322" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C1322" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1322" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B1323" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C1323" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1323" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B1324" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C1324" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1324" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B1325" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C1325" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1325" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B1326" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C1326" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1326" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B1327" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C1327" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D1327" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B1328" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C1328" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D1328" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="0"/>
+      <c r="B1329" s="0"/>
+      <c r="C1329" s="0"/>
+      <c r="D1329" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="0"/>
+      <c r="B1330" s="0"/>
+      <c r="C1330" s="0"/>
+      <c r="D1330" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="0"/>
+      <c r="B1331" s="0"/>
+      <c r="C1331" s="0"/>
+      <c r="D1331" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="0"/>
+      <c r="B1332" s="0"/>
+      <c r="C1332" s="0"/>
+      <c r="D1332" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="0"/>
+      <c r="B1333" s="0"/>
+      <c r="C1333" s="0"/>
+      <c r="D1333" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="0"/>
+      <c r="B1334" s="0"/>
+      <c r="C1334" s="0"/>
+      <c r="D1334" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="0"/>
+      <c r="B1335" s="0"/>
+      <c r="C1335" s="0"/>
+      <c r="D1335" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="0"/>
+      <c r="B1336" s="0"/>
+      <c r="C1336" s="0"/>
+      <c r="D1336" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="0"/>
+      <c r="B1337" s="0"/>
+      <c r="C1337" s="0"/>
+      <c r="D1337" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="0"/>
+      <c r="B1338" s="0"/>
+      <c r="C1338" s="0"/>
+      <c r="D1338" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="0"/>
+      <c r="B1339" s="0"/>
+      <c r="C1339" s="0"/>
+      <c r="D1339" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="0"/>
+      <c r="B1340" s="0"/>
+      <c r="C1340" s="0"/>
+      <c r="D1340" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="0"/>
+      <c r="B1341" s="0"/>
+      <c r="C1341" s="0"/>
+      <c r="D1341" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="0"/>
+      <c r="B1342" s="0"/>
+      <c r="C1342" s="0"/>
+      <c r="D1342" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="0"/>
+      <c r="B1343" s="0"/>
+      <c r="C1343" s="0"/>
+      <c r="D1343" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="0"/>
+      <c r="B1344" s="0"/>
+      <c r="C1344" s="0"/>
+      <c r="D1344" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="0"/>
+      <c r="B1345" s="0"/>
+      <c r="C1345" s="0"/>
+      <c r="D1345" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="0"/>
+      <c r="B1346" s="0"/>
+      <c r="C1346" s="0"/>
+      <c r="D1346" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="0"/>
+      <c r="B1347" s="0"/>
+      <c r="C1347" s="0"/>
+      <c r="D1347" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="0"/>
+      <c r="B1348" s="0"/>
+      <c r="C1348" s="0"/>
+      <c r="D1348" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="0"/>
+      <c r="B1349" s="0"/>
+      <c r="C1349" s="0"/>
+      <c r="D1349" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="0"/>
+      <c r="B1350" s="0"/>
+      <c r="C1350" s="0"/>
+      <c r="D1350" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="0"/>
+      <c r="B1351" s="0"/>
+      <c r="C1351" s="0"/>
+      <c r="D1351" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="0"/>
+      <c r="B1352" s="0"/>
+      <c r="C1352" s="0"/>
+      <c r="D1352" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="0"/>
+      <c r="B1353" s="0"/>
+      <c r="C1353" s="0"/>
+      <c r="D1353" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="0"/>
+      <c r="B1354" s="0"/>
+      <c r="C1354" s="0"/>
+      <c r="D1354" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="0"/>
+      <c r="B1355" s="0"/>
+      <c r="C1355" s="0"/>
+      <c r="D1355" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="0"/>
+      <c r="B1356" s="0"/>
+      <c r="C1356" s="0"/>
+      <c r="D1356" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="0"/>
+      <c r="B1357" s="0"/>
+      <c r="C1357" s="0"/>
+      <c r="D1357" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="0"/>
+      <c r="B1358" s="0"/>
+      <c r="C1358" s="0"/>
+      <c r="D1358" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="0"/>
+      <c r="B1359" s="0"/>
+      <c r="C1359" s="0"/>
+      <c r="D1359" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="0"/>
+      <c r="B1360" s="0"/>
+      <c r="C1360" s="0"/>
+      <c r="D1360" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="0"/>
+      <c r="B1361" s="0"/>
+      <c r="C1361" s="0"/>
+      <c r="D1361" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="0"/>
+      <c r="B1362" s="0"/>
+      <c r="C1362" s="0"/>
+      <c r="D1362" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="0"/>
+      <c r="B1363" s="0"/>
+      <c r="C1363" s="0"/>
+      <c r="D1363" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="0"/>
+      <c r="B1364" s="0"/>
+      <c r="C1364" s="0"/>
+      <c r="D1364" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="0"/>
+      <c r="B1365" s="0"/>
+      <c r="C1365" s="0"/>
+      <c r="D1365" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="0"/>
+      <c r="B1366" s="0"/>
+      <c r="C1366" s="0"/>
+      <c r="D1366" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B1367" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1367" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1367" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B1368" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C1368" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D1368" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B1369" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C1369" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D1369" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B1370" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C1370" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D1370" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1371" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C1371" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1371" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1372" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1372" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D1372" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B1373" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C1373" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1373" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1374" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C1374" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D1374" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1375" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C1375" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1375" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1376" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C1376" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1376" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1377" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C1377" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D1377" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B1378" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C1378" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D1378" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1379" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1379" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D1379" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1380" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C1380" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1380" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B1381" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C1381" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1381" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1382" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C1382" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D1382" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1383" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C1383" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D1383" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1384" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C1384" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D1384" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1385" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C1385" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D1385" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B1386" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C1386" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1386" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1387" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C1387" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1387" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B1388" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C1388" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1388" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B1389" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C1389" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1389" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1390" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C1390" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="D1390" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1391" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C1391" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D1391" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B1392" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C1392" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1392" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B1393" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C1393" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1393" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B1394" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C1394" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1394" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B1395" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C1395" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1395" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B1396" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C1396" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D1396" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="0"/>
+      <c r="B1397" s="0"/>
+      <c r="C1397" s="0"/>
+      <c r="D1397" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="0"/>
+      <c r="B1398" s="0"/>
+      <c r="C1398" s="0"/>
+      <c r="D1398" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="0"/>
+      <c r="B1399" s="0"/>
+      <c r="C1399" s="0"/>
+      <c r="D1399" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="0"/>
+      <c r="B1400" s="0"/>
+      <c r="C1400" s="0"/>
+      <c r="D1400" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="0"/>
+      <c r="B1401" s="0"/>
+      <c r="C1401" s="0"/>
+      <c r="D1401" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="0"/>
+      <c r="B1402" s="0"/>
+      <c r="C1402" s="0"/>
+      <c r="D1402" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="0"/>
+      <c r="B1403" s="0"/>
+      <c r="C1403" s="0"/>
+      <c r="D1403" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="0"/>
+      <c r="B1404" s="0"/>
+      <c r="C1404" s="0"/>
+      <c r="D1404" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="0"/>
+      <c r="B1405" s="0"/>
+      <c r="C1405" s="0"/>
+      <c r="D1405" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="0"/>
+      <c r="B1406" s="0"/>
+      <c r="C1406" s="0"/>
+      <c r="D1406" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="0"/>
+      <c r="B1407" s="0"/>
+      <c r="C1407" s="0"/>
+      <c r="D1407" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="0"/>
+      <c r="B1408" s="0"/>
+      <c r="C1408" s="0"/>
+      <c r="D1408" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="0"/>
+      <c r="B1409" s="0"/>
+      <c r="C1409" s="0"/>
+      <c r="D1409" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="0"/>
+      <c r="B1410" s="0"/>
+      <c r="C1410" s="0"/>
+      <c r="D1410" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="0"/>
+      <c r="B1411" s="0"/>
+      <c r="C1411" s="0"/>
+      <c r="D1411" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="0"/>
+      <c r="B1412" s="0"/>
+      <c r="C1412" s="0"/>
+      <c r="D1412" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="0"/>
+      <c r="B1413" s="0"/>
+      <c r="C1413" s="0"/>
+      <c r="D1413" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="0"/>
+      <c r="B1414" s="0"/>
+      <c r="C1414" s="0"/>
+      <c r="D1414" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="0"/>
+      <c r="B1415" s="0"/>
+      <c r="C1415" s="0"/>
+      <c r="D1415" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="0"/>
+      <c r="B1416" s="0"/>
+      <c r="C1416" s="0"/>
+      <c r="D1416" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="0"/>
+      <c r="B1417" s="0"/>
+      <c r="C1417" s="0"/>
+      <c r="D1417" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="0"/>
+      <c r="B1418" s="0"/>
+      <c r="C1418" s="0"/>
+      <c r="D1418" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="0"/>
+      <c r="B1419" s="0"/>
+      <c r="C1419" s="0"/>
+      <c r="D1419" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="0"/>
+      <c r="B1420" s="0"/>
+      <c r="C1420" s="0"/>
+      <c r="D1420" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="0"/>
+      <c r="B1421" s="0"/>
+      <c r="C1421" s="0"/>
+      <c r="D1421" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="0"/>
+      <c r="B1422" s="0"/>
+      <c r="C1422" s="0"/>
+      <c r="D1422" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="0"/>
+      <c r="B1423" s="0"/>
+      <c r="C1423" s="0"/>
+      <c r="D1423" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="0"/>
+      <c r="B1424" s="0"/>
+      <c r="C1424" s="0"/>
+      <c r="D1424" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="0"/>
+      <c r="B1425" s="0"/>
+      <c r="C1425" s="0"/>
+      <c r="D1425" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="0"/>
+      <c r="B1426" s="0"/>
+      <c r="C1426" s="0"/>
+      <c r="D1426" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="0"/>
+      <c r="B1427" s="0"/>
+      <c r="C1427" s="0"/>
+      <c r="D1427" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="0"/>
+      <c r="B1428" s="0"/>
+      <c r="C1428" s="0"/>
+      <c r="D1428" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="0"/>
+      <c r="B1429" s="0"/>
+      <c r="C1429" s="0"/>
+      <c r="D1429" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="0"/>
+      <c r="B1430" s="0"/>
+      <c r="C1430" s="0"/>
+      <c r="D1430" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="0"/>
+      <c r="B1431" s="0"/>
+      <c r="C1431" s="0"/>
+      <c r="D1431" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="0"/>
+      <c r="B1432" s="0"/>
+      <c r="C1432" s="0"/>
+      <c r="D1432" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="0"/>
+      <c r="B1433" s="0"/>
+      <c r="C1433" s="0"/>
+      <c r="D1433" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="0"/>
+      <c r="B1434" s="0"/>
+      <c r="C1434" s="0"/>
+      <c r="D1434" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="0"/>
+      <c r="B1435" s="0"/>
+      <c r="C1435" s="0"/>
+      <c r="D1435" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="0"/>
+      <c r="B1436" s="0"/>
+      <c r="C1436" s="0"/>
+      <c r="D1436" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="0"/>
+      <c r="B1437" s="0"/>
+      <c r="C1437" s="0"/>
+      <c r="D1437" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="0"/>
+      <c r="B1438" s="0"/>
+      <c r="C1438" s="0"/>
+      <c r="D1438" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="0"/>
+      <c r="B1439" s="0"/>
+      <c r="C1439" s="0"/>
+      <c r="D1439" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="0"/>
+      <c r="B1440" s="0"/>
+      <c r="C1440" s="0"/>
+      <c r="D1440" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="0"/>
+      <c r="B1441" s="0"/>
+      <c r="C1441" s="0"/>
+      <c r="D1441" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="0"/>
+      <c r="B1442" s="0"/>
+      <c r="C1442" s="0"/>
+      <c r="D1442" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="0"/>
+      <c r="B1443" s="0"/>
+      <c r="C1443" s="0"/>
+      <c r="D1443" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="0"/>
+      <c r="B1444" s="0"/>
+      <c r="C1444" s="0"/>
+      <c r="D1444" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="0"/>
+      <c r="B1445" s="0"/>
+      <c r="C1445" s="0"/>
+      <c r="D1445" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="0"/>
+      <c r="B1446" s="0"/>
+      <c r="C1446" s="0"/>
+      <c r="D1446" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="0"/>
+      <c r="B1447" s="0"/>
+      <c r="C1447" s="0"/>
+      <c r="D1447" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="0"/>
+      <c r="B1448" s="0"/>
+      <c r="C1448" s="0"/>
+      <c r="D1448" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="0"/>
+      <c r="B1449" s="0"/>
+      <c r="C1449" s="0"/>
+      <c r="D1449" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="0"/>
+      <c r="B1450" s="0"/>
+      <c r="C1450" s="0"/>
+      <c r="D1450" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="0"/>
+      <c r="B1451" s="0"/>
+      <c r="C1451" s="0"/>
+      <c r="D1451" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="0"/>
+      <c r="B1452" s="0"/>
+      <c r="C1452" s="0"/>
+      <c r="D1452" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="0"/>
+      <c r="B1453" s="0"/>
+      <c r="C1453" s="0"/>
+      <c r="D1453" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="0"/>
+      <c r="B1454" s="0"/>
+      <c r="C1454" s="0"/>
+      <c r="D1454" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="0"/>
+      <c r="B1455" s="0"/>
+      <c r="C1455" s="0"/>
+      <c r="D1455" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="0"/>
+      <c r="B1456" s="0"/>
+      <c r="C1456" s="0"/>
+      <c r="D1456" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="0"/>
+      <c r="B1457" s="0"/>
+      <c r="C1457" s="0"/>
+      <c r="D1457" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="0"/>
+      <c r="B1458" s="0"/>
+      <c r="C1458" s="0"/>
+      <c r="D1458" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="0"/>
+      <c r="B1459" s="0"/>
+      <c r="C1459" s="0"/>
+      <c r="D1459" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B1460" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1460" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1460" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B1461" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C1461" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D1461" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B1462" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C1462" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D1462" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B1463" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C1463" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D1463" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1464" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C1464" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1464" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1465" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1465" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D1465" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B1466" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C1466" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1466" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1467" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C1467" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D1467" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1468" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C1468" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1468" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1469" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C1469" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1469" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1470" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C1470" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D1470" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B1471" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C1471" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D1471" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1472" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1472" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D1472" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1473" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C1473" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1473" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B1474" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C1474" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1474" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1475" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C1475" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D1475" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1476" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C1476" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="D1476" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1477" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C1477" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D1477" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1478" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C1478" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D1478" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B1479" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C1479" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1479" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1480" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C1480" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1480" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B1481" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C1481" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1481" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B1482" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C1482" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1482" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1483" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C1483" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="D1483" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1484" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C1484" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D1484" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B1485" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C1485" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="D1485" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B1486" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C1486" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1486" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B1487" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C1487" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="D1487" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B1488" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C1488" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1488" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B1489" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C1489" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D1489" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="0"/>
+      <c r="B1490" s="0"/>
+      <c r="C1490" s="0"/>
+      <c r="D1490" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="0"/>
+      <c r="B1491" s="0"/>
+      <c r="C1491" s="0"/>
+      <c r="D1491" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="0"/>
+      <c r="B1492" s="0"/>
+      <c r="C1492" s="0"/>
+      <c r="D1492" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="0"/>
+      <c r="B1493" s="0"/>
+      <c r="C1493" s="0"/>
+      <c r="D1493" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="0"/>
+      <c r="B1494" s="0"/>
+      <c r="C1494" s="0"/>
+      <c r="D1494" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="0"/>
+      <c r="B1495" s="0"/>
+      <c r="C1495" s="0"/>
+      <c r="D1495" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="0"/>
+      <c r="B1496" s="0"/>
+      <c r="C1496" s="0"/>
+      <c r="D1496" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="0"/>
+      <c r="B1497" s="0"/>
+      <c r="C1497" s="0"/>
+      <c r="D1497" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="0"/>
+      <c r="B1498" s="0"/>
+      <c r="C1498" s="0"/>
+      <c r="D1498" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="0"/>
+      <c r="B1499" s="0"/>
+      <c r="C1499" s="0"/>
+      <c r="D1499" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="0"/>
+      <c r="B1500" s="0"/>
+      <c r="C1500" s="0"/>
+      <c r="D1500" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="0"/>
+      <c r="B1501" s="0"/>
+      <c r="C1501" s="0"/>
+      <c r="D1501" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="0"/>
+      <c r="B1502" s="0"/>
+      <c r="C1502" s="0"/>
+      <c r="D1502" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="0"/>
+      <c r="B1503" s="0"/>
+      <c r="C1503" s="0"/>
+      <c r="D1503" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="0"/>
+      <c r="B1504" s="0"/>
+      <c r="C1504" s="0"/>
+      <c r="D1504" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="0"/>
+      <c r="B1505" s="0"/>
+      <c r="C1505" s="0"/>
+      <c r="D1505" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="0"/>
+      <c r="B1506" s="0"/>
+      <c r="C1506" s="0"/>
+      <c r="D1506" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="0"/>
+      <c r="B1507" s="0"/>
+      <c r="C1507" s="0"/>
+      <c r="D1507" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="0"/>
+      <c r="B1508" s="0"/>
+      <c r="C1508" s="0"/>
+      <c r="D1508" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="0"/>
+      <c r="B1509" s="0"/>
+      <c r="C1509" s="0"/>
+      <c r="D1509" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="0"/>
+      <c r="B1510" s="0"/>
+      <c r="C1510" s="0"/>
+      <c r="D1510" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="0"/>
+      <c r="B1511" s="0"/>
+      <c r="C1511" s="0"/>
+      <c r="D1511" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="0"/>
+      <c r="B1512" s="0"/>
+      <c r="C1512" s="0"/>
+      <c r="D1512" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="0"/>
+      <c r="B1513" s="0"/>
+      <c r="C1513" s="0"/>
+      <c r="D1513" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="0"/>
+      <c r="B1514" s="0"/>
+      <c r="C1514" s="0"/>
+      <c r="D1514" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="0"/>
+      <c r="B1515" s="0"/>
+      <c r="C1515" s="0"/>
+      <c r="D1515" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="0"/>
+      <c r="B1516" s="0"/>
+      <c r="C1516" s="0"/>
+      <c r="D1516" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="0"/>
+      <c r="B1517" s="0"/>
+      <c r="C1517" s="0"/>
+      <c r="D1517" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="0"/>
+      <c r="B1518" s="0"/>
+      <c r="C1518" s="0"/>
+      <c r="D1518" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="0"/>
+      <c r="B1519" s="0"/>
+      <c r="C1519" s="0"/>
+      <c r="D1519" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="0"/>
+      <c r="B1520" s="0"/>
+      <c r="C1520" s="0"/>
+      <c r="D1520" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="0"/>
+      <c r="B1521" s="0"/>
+      <c r="C1521" s="0"/>
+      <c r="D1521" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="0"/>
+      <c r="B1522" s="0"/>
+      <c r="C1522" s="0"/>
+      <c r="D1522" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="0"/>
+      <c r="B1523" s="0"/>
+      <c r="C1523" s="0"/>
+      <c r="D1523" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="0"/>
+      <c r="B1524" s="0"/>
+      <c r="C1524" s="0"/>
+      <c r="D1524" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="0"/>
+      <c r="B1525" s="0"/>
+      <c r="C1525" s="0"/>
+      <c r="D1525" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="0"/>
+      <c r="B1526" s="0"/>
+      <c r="C1526" s="0"/>
+      <c r="D1526" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="0"/>
+      <c r="B1527" s="0"/>
+      <c r="C1527" s="0"/>
+      <c r="D1527" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="0"/>
+      <c r="B1528" s="0"/>
+      <c r="C1528" s="0"/>
+      <c r="D1528" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="0"/>
+      <c r="B1529" s="0"/>
+      <c r="C1529" s="0"/>
+      <c r="D1529" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="0"/>
+      <c r="B1530" s="0"/>
+      <c r="C1530" s="0"/>
+      <c r="D1530" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="0"/>
+      <c r="B1531" s="0"/>
+      <c r="C1531" s="0"/>
+      <c r="D1531" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="0"/>
+      <c r="B1532" s="0"/>
+      <c r="C1532" s="0"/>
+      <c r="D1532" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="0"/>
+      <c r="B1533" s="0"/>
+      <c r="C1533" s="0"/>
+      <c r="D1533" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="0"/>
+      <c r="B1534" s="0"/>
+      <c r="C1534" s="0"/>
+      <c r="D1534" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="0"/>
+      <c r="B1535" s="0"/>
+      <c r="C1535" s="0"/>
+      <c r="D1535" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="0"/>
+      <c r="B1536" s="0"/>
+      <c r="C1536" s="0"/>
+      <c r="D1536" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="0"/>
+      <c r="B1537" s="0"/>
+      <c r="C1537" s="0"/>
+      <c r="D1537" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="0"/>
+      <c r="B1538" s="0"/>
+      <c r="C1538" s="0"/>
+      <c r="D1538" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="0"/>
+      <c r="B1539" s="0"/>
+      <c r="C1539" s="0"/>
+      <c r="D1539" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="0"/>
+      <c r="B1540" s="0"/>
+      <c r="C1540" s="0"/>
+      <c r="D1540" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="0"/>
+      <c r="B1541" s="0"/>
+      <c r="C1541" s="0"/>
+      <c r="D1541" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="0"/>
+      <c r="B1542" s="0"/>
+      <c r="C1542" s="0"/>
+      <c r="D1542" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="0"/>
+      <c r="B1543" s="0"/>
+      <c r="C1543" s="0"/>
+      <c r="D1543" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="0"/>
+      <c r="B1544" s="0"/>
+      <c r="C1544" s="0"/>
+      <c r="D1544" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="0"/>
+      <c r="B1545" s="0"/>
+      <c r="C1545" s="0"/>
+      <c r="D1545" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="0"/>
+      <c r="B1546" s="0"/>
+      <c r="C1546" s="0"/>
+      <c r="D1546" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="0"/>
+      <c r="B1547" s="0"/>
+      <c r="C1547" s="0"/>
+      <c r="D1547" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="0"/>
+      <c r="B1548" s="0"/>
+      <c r="C1548" s="0"/>
+      <c r="D1548" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="0"/>
+      <c r="B1549" s="0"/>
+      <c r="C1549" s="0"/>
+      <c r="D1549" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="0"/>
+      <c r="B1550" s="0"/>
+      <c r="C1550" s="0"/>
+      <c r="D1550" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="0"/>
+      <c r="B1551" s="0"/>
+      <c r="C1551" s="0"/>
+      <c r="D1551" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="0"/>
+      <c r="B1552" s="0"/>
+      <c r="C1552" s="0"/>
+      <c r="D1552" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C777">
     <sortCondition descending="1" ref="C1:C777"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4719" uniqueCount="285">
   <si>
     <t>Team 1</t>
   </si>
@@ -848,6 +848,33 @@
   </si>
   <si>
     <t>-5.26</t>
+  </si>
+  <si>
+    <t>4:20</t>
+  </si>
+  <si>
+    <t>-6.52</t>
+  </si>
+  <si>
+    <t>72.46</t>
+  </si>
+  <si>
+    <t>20.91</t>
+  </si>
+  <si>
+    <t>-15.35</t>
+  </si>
+  <si>
+    <t>143.59</t>
+  </si>
+  <si>
+    <t>-8.73</t>
+  </si>
+  <si>
+    <t>4:24</t>
+  </si>
+  <si>
+    <t>4:27</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1552"/>
+  <dimension ref="A1:D1832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="A1:XFD1048576"/>
@@ -18654,6 +18681,2786 @@
         <v>273</v>
       </c>
     </row>
+    <row r="1553">
+      <c r="A1553" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B1553" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1553" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="D1553" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B1554" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C1554" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="D1554" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B1555" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C1555" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="D1555" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B1556" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C1556" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="D1556" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1557" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C1557" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="D1557" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1558" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1558" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D1558" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B1559" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C1559" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="D1559" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1560" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C1560" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="D1560" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1561" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C1561" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D1561" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1562" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C1562" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="D1562" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1563" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C1563" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="D1563" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B1564" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C1564" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D1564" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1565" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1565" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="D1565" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1566" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C1566" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="D1566" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B1567" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C1567" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="D1567" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1568" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C1568" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="D1568" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1569" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C1569" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D1569" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1570" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C1570" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D1570" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1571" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C1571" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D1571" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B1572" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C1572" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D1572" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1573" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C1573" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1573" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B1574" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C1574" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="D1574" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B1575" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C1575" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="D1575" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1576" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C1576" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D1576" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1577" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C1577" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D1577" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B1578" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C1578" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="D1578" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B1579" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C1579" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="D1579" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B1580" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C1580" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="D1580" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B1581" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C1581" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D1581" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B1582" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C1582" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="D1582" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="0"/>
+      <c r="B1583" s="0"/>
+      <c r="C1583" s="0"/>
+      <c r="D1583" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="0"/>
+      <c r="B1584" s="0"/>
+      <c r="C1584" s="0"/>
+      <c r="D1584" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="0"/>
+      <c r="B1585" s="0"/>
+      <c r="C1585" s="0"/>
+      <c r="D1585" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="0"/>
+      <c r="B1586" s="0"/>
+      <c r="C1586" s="0"/>
+      <c r="D1586" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="0"/>
+      <c r="B1587" s="0"/>
+      <c r="C1587" s="0"/>
+      <c r="D1587" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="0"/>
+      <c r="B1588" s="0"/>
+      <c r="C1588" s="0"/>
+      <c r="D1588" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="0"/>
+      <c r="B1589" s="0"/>
+      <c r="C1589" s="0"/>
+      <c r="D1589" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="0"/>
+      <c r="B1590" s="0"/>
+      <c r="C1590" s="0"/>
+      <c r="D1590" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="0"/>
+      <c r="B1591" s="0"/>
+      <c r="C1591" s="0"/>
+      <c r="D1591" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="0"/>
+      <c r="B1592" s="0"/>
+      <c r="C1592" s="0"/>
+      <c r="D1592" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="0"/>
+      <c r="B1593" s="0"/>
+      <c r="C1593" s="0"/>
+      <c r="D1593" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="0"/>
+      <c r="B1594" s="0"/>
+      <c r="C1594" s="0"/>
+      <c r="D1594" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="0"/>
+      <c r="B1595" s="0"/>
+      <c r="C1595" s="0"/>
+      <c r="D1595" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="0"/>
+      <c r="B1596" s="0"/>
+      <c r="C1596" s="0"/>
+      <c r="D1596" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="0"/>
+      <c r="B1597" s="0"/>
+      <c r="C1597" s="0"/>
+      <c r="D1597" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="0"/>
+      <c r="B1598" s="0"/>
+      <c r="C1598" s="0"/>
+      <c r="D1598" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="0"/>
+      <c r="B1599" s="0"/>
+      <c r="C1599" s="0"/>
+      <c r="D1599" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="0"/>
+      <c r="B1600" s="0"/>
+      <c r="C1600" s="0"/>
+      <c r="D1600" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="0"/>
+      <c r="B1601" s="0"/>
+      <c r="C1601" s="0"/>
+      <c r="D1601" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="0"/>
+      <c r="B1602" s="0"/>
+      <c r="C1602" s="0"/>
+      <c r="D1602" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="0"/>
+      <c r="B1603" s="0"/>
+      <c r="C1603" s="0"/>
+      <c r="D1603" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="0"/>
+      <c r="B1604" s="0"/>
+      <c r="C1604" s="0"/>
+      <c r="D1604" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="0"/>
+      <c r="B1605" s="0"/>
+      <c r="C1605" s="0"/>
+      <c r="D1605" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="0"/>
+      <c r="B1606" s="0"/>
+      <c r="C1606" s="0"/>
+      <c r="D1606" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="0"/>
+      <c r="B1607" s="0"/>
+      <c r="C1607" s="0"/>
+      <c r="D1607" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="0"/>
+      <c r="B1608" s="0"/>
+      <c r="C1608" s="0"/>
+      <c r="D1608" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="0"/>
+      <c r="B1609" s="0"/>
+      <c r="C1609" s="0"/>
+      <c r="D1609" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="0"/>
+      <c r="B1610" s="0"/>
+      <c r="C1610" s="0"/>
+      <c r="D1610" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="0"/>
+      <c r="B1611" s="0"/>
+      <c r="C1611" s="0"/>
+      <c r="D1611" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="0"/>
+      <c r="B1612" s="0"/>
+      <c r="C1612" s="0"/>
+      <c r="D1612" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="0"/>
+      <c r="B1613" s="0"/>
+      <c r="C1613" s="0"/>
+      <c r="D1613" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="0"/>
+      <c r="B1614" s="0"/>
+      <c r="C1614" s="0"/>
+      <c r="D1614" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="0"/>
+      <c r="B1615" s="0"/>
+      <c r="C1615" s="0"/>
+      <c r="D1615" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="0"/>
+      <c r="B1616" s="0"/>
+      <c r="C1616" s="0"/>
+      <c r="D1616" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="0"/>
+      <c r="B1617" s="0"/>
+      <c r="C1617" s="0"/>
+      <c r="D1617" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="0"/>
+      <c r="B1618" s="0"/>
+      <c r="C1618" s="0"/>
+      <c r="D1618" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="0"/>
+      <c r="B1619" s="0"/>
+      <c r="C1619" s="0"/>
+      <c r="D1619" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="0"/>
+      <c r="B1620" s="0"/>
+      <c r="C1620" s="0"/>
+      <c r="D1620" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="0"/>
+      <c r="B1621" s="0"/>
+      <c r="C1621" s="0"/>
+      <c r="D1621" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="0"/>
+      <c r="B1622" s="0"/>
+      <c r="C1622" s="0"/>
+      <c r="D1622" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="0"/>
+      <c r="B1623" s="0"/>
+      <c r="C1623" s="0"/>
+      <c r="D1623" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="0"/>
+      <c r="B1624" s="0"/>
+      <c r="C1624" s="0"/>
+      <c r="D1624" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="0"/>
+      <c r="B1625" s="0"/>
+      <c r="C1625" s="0"/>
+      <c r="D1625" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="0"/>
+      <c r="B1626" s="0"/>
+      <c r="C1626" s="0"/>
+      <c r="D1626" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="0"/>
+      <c r="B1627" s="0"/>
+      <c r="C1627" s="0"/>
+      <c r="D1627" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="0"/>
+      <c r="B1628" s="0"/>
+      <c r="C1628" s="0"/>
+      <c r="D1628" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="0"/>
+      <c r="B1629" s="0"/>
+      <c r="C1629" s="0"/>
+      <c r="D1629" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="0"/>
+      <c r="B1630" s="0"/>
+      <c r="C1630" s="0"/>
+      <c r="D1630" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="0"/>
+      <c r="B1631" s="0"/>
+      <c r="C1631" s="0"/>
+      <c r="D1631" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="0"/>
+      <c r="B1632" s="0"/>
+      <c r="C1632" s="0"/>
+      <c r="D1632" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="0"/>
+      <c r="B1633" s="0"/>
+      <c r="C1633" s="0"/>
+      <c r="D1633" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="0"/>
+      <c r="B1634" s="0"/>
+      <c r="C1634" s="0"/>
+      <c r="D1634" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="0"/>
+      <c r="B1635" s="0"/>
+      <c r="C1635" s="0"/>
+      <c r="D1635" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="0"/>
+      <c r="B1636" s="0"/>
+      <c r="C1636" s="0"/>
+      <c r="D1636" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="0"/>
+      <c r="B1637" s="0"/>
+      <c r="C1637" s="0"/>
+      <c r="D1637" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="0"/>
+      <c r="B1638" s="0"/>
+      <c r="C1638" s="0"/>
+      <c r="D1638" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="0"/>
+      <c r="B1639" s="0"/>
+      <c r="C1639" s="0"/>
+      <c r="D1639" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="0"/>
+      <c r="B1640" s="0"/>
+      <c r="C1640" s="0"/>
+      <c r="D1640" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="0"/>
+      <c r="B1641" s="0"/>
+      <c r="C1641" s="0"/>
+      <c r="D1641" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="0"/>
+      <c r="B1642" s="0"/>
+      <c r="C1642" s="0"/>
+      <c r="D1642" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="0"/>
+      <c r="B1643" s="0"/>
+      <c r="C1643" s="0"/>
+      <c r="D1643" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="0"/>
+      <c r="B1644" s="0"/>
+      <c r="C1644" s="0"/>
+      <c r="D1644" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="0"/>
+      <c r="B1645" s="0"/>
+      <c r="C1645" s="0"/>
+      <c r="D1645" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B1646" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1646" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1646" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B1647" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C1647" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D1647" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B1648" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C1648" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D1648" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B1649" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C1649" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D1649" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1650" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C1650" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1650" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1651" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1651" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D1651" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B1652" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C1652" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1652" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1653" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C1653" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D1653" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1654" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C1654" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1654" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1655" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C1655" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1655" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1656" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C1656" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D1656" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B1657" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C1657" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D1657" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1658" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1658" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D1658" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1659" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C1659" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1659" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B1660" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C1660" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1660" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1661" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C1661" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D1661" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1662" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C1662" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="D1662" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1663" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C1663" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1663" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1664" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C1664" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D1664" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B1665" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C1665" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1665" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1666" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C1666" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1666" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B1667" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C1667" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1667" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B1668" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C1668" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1668" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1669" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C1669" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="D1669" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1670" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C1670" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D1670" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B1671" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C1671" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="D1671" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B1672" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C1672" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1672" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B1673" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C1673" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="D1673" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B1674" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C1674" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1674" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B1675" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C1675" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D1675" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="0"/>
+      <c r="B1676" s="0"/>
+      <c r="C1676" s="0"/>
+      <c r="D1676" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="0"/>
+      <c r="B1677" s="0"/>
+      <c r="C1677" s="0"/>
+      <c r="D1677" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="0"/>
+      <c r="B1678" s="0"/>
+      <c r="C1678" s="0"/>
+      <c r="D1678" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="0"/>
+      <c r="B1679" s="0"/>
+      <c r="C1679" s="0"/>
+      <c r="D1679" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="0"/>
+      <c r="B1680" s="0"/>
+      <c r="C1680" s="0"/>
+      <c r="D1680" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="0"/>
+      <c r="B1681" s="0"/>
+      <c r="C1681" s="0"/>
+      <c r="D1681" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="0"/>
+      <c r="B1682" s="0"/>
+      <c r="C1682" s="0"/>
+      <c r="D1682" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="0"/>
+      <c r="B1683" s="0"/>
+      <c r="C1683" s="0"/>
+      <c r="D1683" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="0"/>
+      <c r="B1684" s="0"/>
+      <c r="C1684" s="0"/>
+      <c r="D1684" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="0"/>
+      <c r="B1685" s="0"/>
+      <c r="C1685" s="0"/>
+      <c r="D1685" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="0"/>
+      <c r="B1686" s="0"/>
+      <c r="C1686" s="0"/>
+      <c r="D1686" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="0"/>
+      <c r="B1687" s="0"/>
+      <c r="C1687" s="0"/>
+      <c r="D1687" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="0"/>
+      <c r="B1688" s="0"/>
+      <c r="C1688" s="0"/>
+      <c r="D1688" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="0"/>
+      <c r="B1689" s="0"/>
+      <c r="C1689" s="0"/>
+      <c r="D1689" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="0"/>
+      <c r="B1690" s="0"/>
+      <c r="C1690" s="0"/>
+      <c r="D1690" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="0"/>
+      <c r="B1691" s="0"/>
+      <c r="C1691" s="0"/>
+      <c r="D1691" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="0"/>
+      <c r="B1692" s="0"/>
+      <c r="C1692" s="0"/>
+      <c r="D1692" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="0"/>
+      <c r="B1693" s="0"/>
+      <c r="C1693" s="0"/>
+      <c r="D1693" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="0"/>
+      <c r="B1694" s="0"/>
+      <c r="C1694" s="0"/>
+      <c r="D1694" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="0"/>
+      <c r="B1695" s="0"/>
+      <c r="C1695" s="0"/>
+      <c r="D1695" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="0"/>
+      <c r="B1696" s="0"/>
+      <c r="C1696" s="0"/>
+      <c r="D1696" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="0"/>
+      <c r="B1697" s="0"/>
+      <c r="C1697" s="0"/>
+      <c r="D1697" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="0"/>
+      <c r="B1698" s="0"/>
+      <c r="C1698" s="0"/>
+      <c r="D1698" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="0"/>
+      <c r="B1699" s="0"/>
+      <c r="C1699" s="0"/>
+      <c r="D1699" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="0"/>
+      <c r="B1700" s="0"/>
+      <c r="C1700" s="0"/>
+      <c r="D1700" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="0"/>
+      <c r="B1701" s="0"/>
+      <c r="C1701" s="0"/>
+      <c r="D1701" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="0"/>
+      <c r="B1702" s="0"/>
+      <c r="C1702" s="0"/>
+      <c r="D1702" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="0"/>
+      <c r="B1703" s="0"/>
+      <c r="C1703" s="0"/>
+      <c r="D1703" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="0"/>
+      <c r="B1704" s="0"/>
+      <c r="C1704" s="0"/>
+      <c r="D1704" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="0"/>
+      <c r="B1705" s="0"/>
+      <c r="C1705" s="0"/>
+      <c r="D1705" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="0"/>
+      <c r="B1706" s="0"/>
+      <c r="C1706" s="0"/>
+      <c r="D1706" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="0"/>
+      <c r="B1707" s="0"/>
+      <c r="C1707" s="0"/>
+      <c r="D1707" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="0"/>
+      <c r="B1708" s="0"/>
+      <c r="C1708" s="0"/>
+      <c r="D1708" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="0"/>
+      <c r="B1709" s="0"/>
+      <c r="C1709" s="0"/>
+      <c r="D1709" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="0"/>
+      <c r="B1710" s="0"/>
+      <c r="C1710" s="0"/>
+      <c r="D1710" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="0"/>
+      <c r="B1711" s="0"/>
+      <c r="C1711" s="0"/>
+      <c r="D1711" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="0"/>
+      <c r="B1712" s="0"/>
+      <c r="C1712" s="0"/>
+      <c r="D1712" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="0"/>
+      <c r="B1713" s="0"/>
+      <c r="C1713" s="0"/>
+      <c r="D1713" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="0"/>
+      <c r="B1714" s="0"/>
+      <c r="C1714" s="0"/>
+      <c r="D1714" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="0"/>
+      <c r="B1715" s="0"/>
+      <c r="C1715" s="0"/>
+      <c r="D1715" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="0"/>
+      <c r="B1716" s="0"/>
+      <c r="C1716" s="0"/>
+      <c r="D1716" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="0"/>
+      <c r="B1717" s="0"/>
+      <c r="C1717" s="0"/>
+      <c r="D1717" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="0"/>
+      <c r="B1718" s="0"/>
+      <c r="C1718" s="0"/>
+      <c r="D1718" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="0"/>
+      <c r="B1719" s="0"/>
+      <c r="C1719" s="0"/>
+      <c r="D1719" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="0"/>
+      <c r="B1720" s="0"/>
+      <c r="C1720" s="0"/>
+      <c r="D1720" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="0"/>
+      <c r="B1721" s="0"/>
+      <c r="C1721" s="0"/>
+      <c r="D1721" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="0"/>
+      <c r="B1722" s="0"/>
+      <c r="C1722" s="0"/>
+      <c r="D1722" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="0"/>
+      <c r="B1723" s="0"/>
+      <c r="C1723" s="0"/>
+      <c r="D1723" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="0"/>
+      <c r="B1724" s="0"/>
+      <c r="C1724" s="0"/>
+      <c r="D1724" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="0"/>
+      <c r="B1725" s="0"/>
+      <c r="C1725" s="0"/>
+      <c r="D1725" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="0"/>
+      <c r="B1726" s="0"/>
+      <c r="C1726" s="0"/>
+      <c r="D1726" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="0"/>
+      <c r="B1727" s="0"/>
+      <c r="C1727" s="0"/>
+      <c r="D1727" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="0"/>
+      <c r="B1728" s="0"/>
+      <c r="C1728" s="0"/>
+      <c r="D1728" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="0"/>
+      <c r="B1729" s="0"/>
+      <c r="C1729" s="0"/>
+      <c r="D1729" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="0"/>
+      <c r="B1730" s="0"/>
+      <c r="C1730" s="0"/>
+      <c r="D1730" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="0"/>
+      <c r="B1731" s="0"/>
+      <c r="C1731" s="0"/>
+      <c r="D1731" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="0"/>
+      <c r="B1732" s="0"/>
+      <c r="C1732" s="0"/>
+      <c r="D1732" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="0"/>
+      <c r="B1733" s="0"/>
+      <c r="C1733" s="0"/>
+      <c r="D1733" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="0"/>
+      <c r="B1734" s="0"/>
+      <c r="C1734" s="0"/>
+      <c r="D1734" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="0"/>
+      <c r="B1735" s="0"/>
+      <c r="C1735" s="0"/>
+      <c r="D1735" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="0"/>
+      <c r="B1736" s="0"/>
+      <c r="C1736" s="0"/>
+      <c r="D1736" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="0"/>
+      <c r="B1737" s="0"/>
+      <c r="C1737" s="0"/>
+      <c r="D1737" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B1738" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1738" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1738" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B1739" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C1739" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D1739" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B1740" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C1740" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D1740" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B1741" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C1741" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="D1741" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1742" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C1742" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1742" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1743" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1743" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D1743" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B1744" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C1744" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1744" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1745" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C1745" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D1745" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1746" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C1746" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D1746" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1747" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C1747" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D1747" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1748" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C1748" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D1748" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B1749" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C1749" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D1749" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1750" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1750" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="D1750" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1751" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C1751" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1751" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B1752" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C1752" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D1752" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1753" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C1753" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D1753" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1754" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C1754" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="D1754" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1755" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C1755" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1755" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1756" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C1756" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D1756" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B1757" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C1757" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1757" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1758" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C1758" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1758" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B1759" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C1759" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1759" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B1760" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C1760" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1760" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1761" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C1761" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="D1761" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1762" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C1762" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D1762" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B1763" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C1763" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="D1763" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B1764" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C1764" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D1764" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B1765" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C1765" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="D1765" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B1766" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C1766" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D1766" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B1767" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C1767" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D1767" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="0"/>
+      <c r="B1768" s="0"/>
+      <c r="C1768" s="0"/>
+      <c r="D1768" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="0"/>
+      <c r="B1769" s="0"/>
+      <c r="C1769" s="0"/>
+      <c r="D1769" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="0"/>
+      <c r="B1770" s="0"/>
+      <c r="C1770" s="0"/>
+      <c r="D1770" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="0"/>
+      <c r="B1771" s="0"/>
+      <c r="C1771" s="0"/>
+      <c r="D1771" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="0"/>
+      <c r="B1772" s="0"/>
+      <c r="C1772" s="0"/>
+      <c r="D1772" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="0"/>
+      <c r="B1773" s="0"/>
+      <c r="C1773" s="0"/>
+      <c r="D1773" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="0"/>
+      <c r="B1774" s="0"/>
+      <c r="C1774" s="0"/>
+      <c r="D1774" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="0"/>
+      <c r="B1775" s="0"/>
+      <c r="C1775" s="0"/>
+      <c r="D1775" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="0"/>
+      <c r="B1776" s="0"/>
+      <c r="C1776" s="0"/>
+      <c r="D1776" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="0"/>
+      <c r="B1777" s="0"/>
+      <c r="C1777" s="0"/>
+      <c r="D1777" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="0"/>
+      <c r="B1778" s="0"/>
+      <c r="C1778" s="0"/>
+      <c r="D1778" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="0"/>
+      <c r="B1779" s="0"/>
+      <c r="C1779" s="0"/>
+      <c r="D1779" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="0"/>
+      <c r="B1780" s="0"/>
+      <c r="C1780" s="0"/>
+      <c r="D1780" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="0"/>
+      <c r="B1781" s="0"/>
+      <c r="C1781" s="0"/>
+      <c r="D1781" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="0"/>
+      <c r="B1782" s="0"/>
+      <c r="C1782" s="0"/>
+      <c r="D1782" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="0"/>
+      <c r="B1783" s="0"/>
+      <c r="C1783" s="0"/>
+      <c r="D1783" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="0"/>
+      <c r="B1784" s="0"/>
+      <c r="C1784" s="0"/>
+      <c r="D1784" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="0"/>
+      <c r="B1785" s="0"/>
+      <c r="C1785" s="0"/>
+      <c r="D1785" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="0"/>
+      <c r="B1786" s="0"/>
+      <c r="C1786" s="0"/>
+      <c r="D1786" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="0"/>
+      <c r="B1787" s="0"/>
+      <c r="C1787" s="0"/>
+      <c r="D1787" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="0"/>
+      <c r="B1788" s="0"/>
+      <c r="C1788" s="0"/>
+      <c r="D1788" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="0"/>
+      <c r="B1789" s="0"/>
+      <c r="C1789" s="0"/>
+      <c r="D1789" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="0"/>
+      <c r="B1790" s="0"/>
+      <c r="C1790" s="0"/>
+      <c r="D1790" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="0"/>
+      <c r="B1791" s="0"/>
+      <c r="C1791" s="0"/>
+      <c r="D1791" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="0"/>
+      <c r="B1792" s="0"/>
+      <c r="C1792" s="0"/>
+      <c r="D1792" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="0"/>
+      <c r="B1793" s="0"/>
+      <c r="C1793" s="0"/>
+      <c r="D1793" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="0"/>
+      <c r="B1794" s="0"/>
+      <c r="C1794" s="0"/>
+      <c r="D1794" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="0"/>
+      <c r="B1795" s="0"/>
+      <c r="C1795" s="0"/>
+      <c r="D1795" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="0"/>
+      <c r="B1796" s="0"/>
+      <c r="C1796" s="0"/>
+      <c r="D1796" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="0"/>
+      <c r="B1797" s="0"/>
+      <c r="C1797" s="0"/>
+      <c r="D1797" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="0"/>
+      <c r="B1798" s="0"/>
+      <c r="C1798" s="0"/>
+      <c r="D1798" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="0"/>
+      <c r="B1799" s="0"/>
+      <c r="C1799" s="0"/>
+      <c r="D1799" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="0"/>
+      <c r="B1800" s="0"/>
+      <c r="C1800" s="0"/>
+      <c r="D1800" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="0"/>
+      <c r="B1801" s="0"/>
+      <c r="C1801" s="0"/>
+      <c r="D1801" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="0"/>
+      <c r="B1802" s="0"/>
+      <c r="C1802" s="0"/>
+      <c r="D1802" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="0"/>
+      <c r="B1803" s="0"/>
+      <c r="C1803" s="0"/>
+      <c r="D1803" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="0"/>
+      <c r="B1804" s="0"/>
+      <c r="C1804" s="0"/>
+      <c r="D1804" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="0"/>
+      <c r="B1805" s="0"/>
+      <c r="C1805" s="0"/>
+      <c r="D1805" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="0"/>
+      <c r="B1806" s="0"/>
+      <c r="C1806" s="0"/>
+      <c r="D1806" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="0"/>
+      <c r="B1807" s="0"/>
+      <c r="C1807" s="0"/>
+      <c r="D1807" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="0"/>
+      <c r="B1808" s="0"/>
+      <c r="C1808" s="0"/>
+      <c r="D1808" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="0"/>
+      <c r="B1809" s="0"/>
+      <c r="C1809" s="0"/>
+      <c r="D1809" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="0"/>
+      <c r="B1810" s="0"/>
+      <c r="C1810" s="0"/>
+      <c r="D1810" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="0"/>
+      <c r="B1811" s="0"/>
+      <c r="C1811" s="0"/>
+      <c r="D1811" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="0"/>
+      <c r="B1812" s="0"/>
+      <c r="C1812" s="0"/>
+      <c r="D1812" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="0"/>
+      <c r="B1813" s="0"/>
+      <c r="C1813" s="0"/>
+      <c r="D1813" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="0"/>
+      <c r="B1814" s="0"/>
+      <c r="C1814" s="0"/>
+      <c r="D1814" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="0"/>
+      <c r="B1815" s="0"/>
+      <c r="C1815" s="0"/>
+      <c r="D1815" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="0"/>
+      <c r="B1816" s="0"/>
+      <c r="C1816" s="0"/>
+      <c r="D1816" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="0"/>
+      <c r="B1817" s="0"/>
+      <c r="C1817" s="0"/>
+      <c r="D1817" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="0"/>
+      <c r="B1818" s="0"/>
+      <c r="C1818" s="0"/>
+      <c r="D1818" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="0"/>
+      <c r="B1819" s="0"/>
+      <c r="C1819" s="0"/>
+      <c r="D1819" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="0"/>
+      <c r="B1820" s="0"/>
+      <c r="C1820" s="0"/>
+      <c r="D1820" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="0"/>
+      <c r="B1821" s="0"/>
+      <c r="C1821" s="0"/>
+      <c r="D1821" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="0"/>
+      <c r="B1822" s="0"/>
+      <c r="C1822" s="0"/>
+      <c r="D1822" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="0"/>
+      <c r="B1823" s="0"/>
+      <c r="C1823" s="0"/>
+      <c r="D1823" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="0"/>
+      <c r="B1824" s="0"/>
+      <c r="C1824" s="0"/>
+      <c r="D1824" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="0"/>
+      <c r="B1825" s="0"/>
+      <c r="C1825" s="0"/>
+      <c r="D1825" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="0"/>
+      <c r="B1826" s="0"/>
+      <c r="C1826" s="0"/>
+      <c r="D1826" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="0"/>
+      <c r="B1827" s="0"/>
+      <c r="C1827" s="0"/>
+      <c r="D1827" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="0"/>
+      <c r="B1828" s="0"/>
+      <c r="C1828" s="0"/>
+      <c r="D1828" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="0"/>
+      <c r="B1829" s="0"/>
+      <c r="C1829" s="0"/>
+      <c r="D1829" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="0"/>
+      <c r="B1830" s="0"/>
+      <c r="C1830" s="0"/>
+      <c r="D1830" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="0"/>
+      <c r="B1831" s="0"/>
+      <c r="C1831" s="0"/>
+      <c r="D1831" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="0"/>
+      <c r="B1832" s="0"/>
+      <c r="C1832" s="0"/>
+      <c r="D1832" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C777">
     <sortCondition descending="1" ref="C1:C777"/>
